--- a/參考文件/資料結構.xlsx
+++ b/參考文件/資料結構.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pig94\Desktop\EZcloDB\參考文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EZcloDB\參考文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1038C9F1-F9D7-43A8-AD50-E27FEEC3B4BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="資料結構" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>吳佾軒</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{227202D3-1C41-4E4D-A63E-35E71F45A8F0}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{EF8DE677-4953-452B-ACA1-753135E34BC6}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
   <si>
     <t>dbo</t>
   </si>
@@ -249,12 +248,27 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>M_Active</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>((0))</t>
+  </si>
+  <si>
+    <t>F_Able</t>
+  </si>
+  <si>
+    <t>T_Able</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1578,11 +1592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1926,115 +1940,113 @@
     </row>
     <row r="8" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="8">
+        <v>-7</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="9">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
-        <v>-9</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="8">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="8">
-        <v>-9</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>40</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="9">
-        <v>39</v>
-      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="8">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H10" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8">
-        <v>4</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>4</v>
@@ -2043,27 +2055,27 @@
         <v>4</v>
       </c>
       <c r="O10" s="8">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>4</v>
+      <c r="Q10" s="8">
+        <v>40</v>
       </c>
       <c r="R10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T10" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>0</v>
@@ -2072,7 +2084,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F11" s="8">
         <v>4</v>
@@ -2093,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>4</v>
@@ -2111,64 +2123,102 @@
         <v>4</v>
       </c>
       <c r="R11" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T11" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="8">
+        <v>4</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="9">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H13" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8">
-        <v>40</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10</v>
       </c>
       <c r="L13" s="8">
         <v>1</v>
@@ -2180,80 +2230,44 @@
         <v>4</v>
       </c>
       <c r="O13" s="8">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="8">
-        <v>40</v>
+      <c r="Q13" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="R13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="T13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2147483647</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2147483647</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="8">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>2147483647</v>
-      </c>
-      <c r="R14" s="8">
-        <v>2</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="9">
-        <v>35</v>
-      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
@@ -2264,19 +2278,19 @@
         <v>15</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="8">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8">
         <v>20</v>
       </c>
       <c r="I15" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>4</v>
@@ -2294,16 +2308,16 @@
         <v>4</v>
       </c>
       <c r="O15" s="8">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R15" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>8</v>
@@ -2321,22 +2335,22 @@
         <v>15</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H16" s="8">
-        <v>23</v>
+        <v>2147483647</v>
       </c>
       <c r="I16" s="8">
-        <v>16</v>
-      </c>
-      <c r="J16" s="8">
-        <v>3</v>
+        <v>2147483647</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>4</v>
@@ -2351,28 +2365,26 @@
         <v>4</v>
       </c>
       <c r="O16" s="8">
-        <v>9</v>
-      </c>
-      <c r="P16" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2147483647</v>
       </c>
       <c r="R16" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="T16" s="9">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2380,58 +2392,56 @@
         <v>15</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8">
+        <v>20</v>
+      </c>
+      <c r="I17" s="8">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="8">
+        <v>12</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>20</v>
+      </c>
+      <c r="R17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="8">
-        <v>10</v>
-      </c>
-      <c r="I17" s="8">
-        <v>4</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>10</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="8">
-        <v>4</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="8">
-        <v>5</v>
-      </c>
       <c r="S17" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T17" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>0</v>
       </c>
@@ -2439,25 +2449,25 @@
         <v>15</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F18" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="8">
-        <v>10</v>
-      </c>
-      <c r="I18" s="8">
-        <v>4</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>10</v>
+      <c r="K18" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="8">
         <v>1</v>
@@ -2469,57 +2479,93 @@
         <v>4</v>
       </c>
       <c r="O18" s="8">
-        <v>4</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="P18" s="8">
+        <v>3</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="9">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>10</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="8">
+        <v>4</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="8">
+        <v>5</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="9">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -2540,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>4</v>
@@ -2558,25 +2604,27 @@
         <v>4</v>
       </c>
       <c r="R20" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T20" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8">
         <v>4</v>
@@ -2615,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>8</v>
@@ -2626,63 +2674,29 @@
     </row>
     <row r="22" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
-      <c r="C22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8">
-        <v>10</v>
-      </c>
-      <c r="I22" s="8">
-        <v>4</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>10</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="8">
-        <v>4</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="8">
-        <v>3</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="9">
-        <v>38</v>
-      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
@@ -2690,115 +2704,286 @@
         <v>22</v>
       </c>
       <c r="E23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="8">
+        <v>4</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>10</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>10</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="8">
+        <v>4</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="8">
+        <v>2</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="8">
+        <v>10</v>
+      </c>
+      <c r="I25" s="8">
+        <v>4</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>10</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="8">
+        <v>4</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="8">
+        <v>3</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F26" s="8">
         <v>11</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H26" s="8">
         <v>23</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I26" s="8">
         <v>16</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J26" s="8">
         <v>3</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="K26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="8">
         <v>9</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="8">
-        <v>4</v>
-      </c>
-      <c r="S23" s="8" t="s">
+      <c r="Q26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="8">
+        <v>4</v>
+      </c>
+      <c r="S26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T26" s="9">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+    <row r="27" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="C27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="16">
-        <v>4</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F27" s="16">
+        <v>4</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H27" s="16">
         <v>10</v>
       </c>
-      <c r="I24" s="16">
-        <v>4</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
+      <c r="I27" s="16">
+        <v>4</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
         <v>10</v>
       </c>
-      <c r="L24" s="16">
-        <v>1</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="16">
-        <v>4</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="16">
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="16">
+        <v>4</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="16">
         <v>5</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T27" s="17">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
